--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>S.N.</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Saturday: Holiday</t>
+  </si>
+  <si>
+    <t>Java inputs : String and Integer</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -143,10 +146,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -483,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -494,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -505,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -516,7 +519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -527,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -538,16 +541,18 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8">
         <v>45340</v>
       </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -556,7 +561,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -565,7 +570,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -574,7 +579,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -583,7 +588,7 @@
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -592,7 +597,7 @@
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -601,7 +606,7 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -610,7 +615,7 @@
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -619,7 +624,7 @@
       </c>
       <c r="C16" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -628,7 +633,7 @@
       </c>
       <c r="C17" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -637,7 +642,7 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="7">
         <v>18</v>
       </c>

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>S.N.</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Java inputs : String and Integer</t>
+  </si>
+  <si>
+    <t>Prajatantra diwas</t>
+  </si>
+  <si>
+    <t>Class and Object</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,9 @@
       <c r="B9" s="8">
         <v>45341</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7">
@@ -568,7 +576,9 @@
       <c r="B10" s="8">
         <v>45342</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7">
@@ -651,7 +661,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>S.N.</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>Class and Object</t>
+  </si>
+  <si>
+    <t>Operators, Class Test</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>Method Overloading</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,9 @@
       <c r="B11" s="8">
         <v>45343</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7">
@@ -596,7 +607,9 @@
       <c r="B12" s="8">
         <v>45344</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7">
@@ -605,7 +618,9 @@
       <c r="B13" s="8">
         <v>45345</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7">
@@ -614,7 +629,9 @@
       <c r="B14" s="8">
         <v>45346</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7">
@@ -623,7 +640,9 @@
       <c r="B15" s="8">
         <v>45347</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7">
@@ -632,7 +651,9 @@
       <c r="B16" s="8">
         <v>45348</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>S.N.</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>Method Overloading</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>No class due to hospital issue</t>
+  </si>
+  <si>
+    <t>1 -4 Only</t>
   </si>
 </sst>
 </file>
@@ -662,7 +671,9 @@
       <c r="B17" s="8">
         <v>45349</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="7">
@@ -671,7 +682,9 @@
       <c r="B18" s="8">
         <v>45350</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="7">
@@ -680,7 +693,9 @@
       <c r="B19" s="8">
         <v>45351</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>S.N.</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>1 -4 Only</t>
+  </si>
+  <si>
+    <t>1-4 Only</t>
+  </si>
+  <si>
+    <t>Exveption Handling Practical Session</t>
   </si>
 </sst>
 </file>
@@ -75,7 +81,7 @@
     <numFmt numFmtId="164" formatCode=",,"/>
     <numFmt numFmtId="165" formatCode="dddd, mmmm dd, yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +99,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -137,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -164,6 +176,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -477,15 +492,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="38.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -697,14 +712,515 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="8">
         <v>45352</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>45353</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>45354</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>45355</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>45356</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>45357</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>45358</v>
+      </c>
+      <c r="C26" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>45359</v>
+      </c>
+      <c r="C27" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>45360</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>45361</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>45362</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>45363</v>
+      </c>
+      <c r="C31" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>45364</v>
+      </c>
+      <c r="C32" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8">
+        <v>45365</v>
+      </c>
+      <c r="C33" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8">
+        <v>45366</v>
+      </c>
+      <c r="C34" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45367</v>
+      </c>
+      <c r="C35" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>45368</v>
+      </c>
+      <c r="C36" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8">
+        <v>45369</v>
+      </c>
+      <c r="C37" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <v>45370</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8">
+        <v>45371</v>
+      </c>
+      <c r="C39" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45372</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8">
+        <v>45373</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8">
+        <v>45374</v>
+      </c>
+      <c r="C42" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8">
+        <v>45375</v>
+      </c>
+      <c r="C43" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8">
+        <v>45376</v>
+      </c>
+      <c r="C44" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8">
+        <v>45377</v>
+      </c>
+      <c r="C45" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8">
+        <v>45378</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8">
+        <v>45379</v>
+      </c>
+      <c r="C47" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8">
+        <v>45380</v>
+      </c>
+      <c r="C48" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8">
+        <v>45381</v>
+      </c>
+      <c r="C49" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8">
+        <v>45382</v>
+      </c>
+      <c r="C50" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8">
+        <v>45383</v>
+      </c>
+      <c r="C51" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8">
+        <v>45384</v>
+      </c>
+      <c r="C52" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8">
+        <v>45385</v>
+      </c>
+      <c r="C53" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>45386</v>
+      </c>
+      <c r="C54" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>45387</v>
+      </c>
+      <c r="C55" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>45388</v>
+      </c>
+      <c r="C56" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>45389</v>
+      </c>
+      <c r="C57" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8">
+        <v>45390</v>
+      </c>
+      <c r="C58" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8">
+        <v>45391</v>
+      </c>
+      <c r="C59" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8">
+        <v>45392</v>
+      </c>
+      <c r="C60" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8">
+        <v>45393</v>
+      </c>
+      <c r="C61" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8">
+        <v>45394</v>
+      </c>
+      <c r="C62" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8">
+        <v>45395</v>
+      </c>
+      <c r="C63" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8">
+        <v>45396</v>
+      </c>
+      <c r="C64" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8">
+        <v>45397</v>
+      </c>
+      <c r="C65" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8">
+        <v>45398</v>
+      </c>
+      <c r="C66" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8">
+        <v>45399</v>
+      </c>
+      <c r="C67" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8">
+        <v>45400</v>
+      </c>
+      <c r="C68" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8">
+        <v>45401</v>
+      </c>
+      <c r="C69" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8">
+        <v>45402</v>
+      </c>
+      <c r="C70" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8">
+        <v>45403</v>
+      </c>
+      <c r="C71" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8">
+        <v>45404</v>
+      </c>
+      <c r="C72" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8">
+        <v>45405</v>
+      </c>
+      <c r="C73" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8">
+        <v>45406</v>
+      </c>
+      <c r="C74" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8">
+        <v>45407</v>
+      </c>
+      <c r="C75" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>S.N.</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>Exveption Handling Practical Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptional Handling </t>
+  </si>
+  <si>
+    <t>College Holiday due to untimely demise of a Student</t>
+  </si>
+  <si>
+    <t>Leave, External Examiner</t>
+  </si>
+  <si>
+    <t>Sarurday : Holiday</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
   </si>
 </sst>
 </file>
@@ -81,7 +96,7 @@
     <numFmt numFmtId="164" formatCode=",,"/>
     <numFmt numFmtId="165" formatCode="dddd, mmmm dd, yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,12 +114,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -149,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -176,9 +185,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -498,9 +504,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="38.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -730,7 +736,7 @@
       <c r="B21" s="8">
         <v>45353</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -741,7 +747,7 @@
       <c r="B22" s="8">
         <v>45354</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -752,7 +758,9 @@
       <c r="B23" s="8">
         <v>45355</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="7">
@@ -761,7 +769,9 @@
       <c r="B24" s="8">
         <v>45356</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="7">
@@ -770,7 +780,9 @@
       <c r="B25" s="8">
         <v>45357</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="7">
@@ -779,7 +791,9 @@
       <c r="B26" s="8">
         <v>45358</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="7">
@@ -788,7 +802,9 @@
       <c r="B27" s="8">
         <v>45359</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="7">
@@ -797,7 +813,9 @@
       <c r="B28" s="8">
         <v>45360</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="7">
@@ -806,7 +824,9 @@
       <c r="B29" s="8">
         <v>45361</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="7">
@@ -815,7 +835,7 @@
       <c r="B30" s="8">
         <v>45362</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="7">
@@ -824,7 +844,7 @@
       <c r="B31" s="8">
         <v>45363</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="7">
@@ -833,7 +853,7 @@
       <c r="B32" s="8">
         <v>45364</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="7">
@@ -842,7 +862,7 @@
       <c r="B33" s="8">
         <v>45365</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="7">
@@ -851,7 +871,7 @@
       <c r="B34" s="8">
         <v>45366</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="7">
@@ -860,7 +880,7 @@
       <c r="B35" s="8">
         <v>45367</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="7">
@@ -869,7 +889,7 @@
       <c r="B36" s="8">
         <v>45368</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="7">
@@ -878,7 +898,7 @@
       <c r="B37" s="8">
         <v>45369</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="7">
@@ -887,7 +907,7 @@
       <c r="B38" s="8">
         <v>45370</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="7">
@@ -896,7 +916,7 @@
       <c r="B39" s="8">
         <v>45371</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="7">
@@ -905,7 +925,7 @@
       <c r="B40" s="8">
         <v>45372</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="7">
@@ -914,7 +934,7 @@
       <c r="B41" s="8">
         <v>45373</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="7">
@@ -923,7 +943,7 @@
       <c r="B42" s="8">
         <v>45374</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="7">
@@ -932,7 +952,7 @@
       <c r="B43" s="8">
         <v>45375</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="7">
@@ -941,7 +961,7 @@
       <c r="B44" s="8">
         <v>45376</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="7">
@@ -950,7 +970,7 @@
       <c r="B45" s="8">
         <v>45377</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="7">
@@ -959,7 +979,7 @@
       <c r="B46" s="8">
         <v>45378</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="7">
@@ -968,7 +988,7 @@
       <c r="B47" s="8">
         <v>45379</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="7">
@@ -977,7 +997,7 @@
       <c r="B48" s="8">
         <v>45380</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="7">
@@ -986,7 +1006,7 @@
       <c r="B49" s="8">
         <v>45381</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="7">
@@ -995,7 +1015,7 @@
       <c r="B50" s="8">
         <v>45382</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="7">
@@ -1004,7 +1024,7 @@
       <c r="B51" s="8">
         <v>45383</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="7">
@@ -1013,7 +1033,7 @@
       <c r="B52" s="8">
         <v>45384</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="7">
@@ -1022,7 +1042,7 @@
       <c r="B53" s="8">
         <v>45385</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="7">
@@ -1031,7 +1051,7 @@
       <c r="B54" s="8">
         <v>45386</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="7">
@@ -1040,7 +1060,7 @@
       <c r="B55" s="8">
         <v>45387</v>
       </c>
-      <c r="C55" s="10"/>
+      <c r="C55" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="7">
@@ -1049,7 +1069,7 @@
       <c r="B56" s="8">
         <v>45388</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="7">
@@ -1058,7 +1078,7 @@
       <c r="B57" s="8">
         <v>45389</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="7">
@@ -1067,7 +1087,7 @@
       <c r="B58" s="8">
         <v>45390</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="7">
@@ -1076,7 +1096,7 @@
       <c r="B59" s="8">
         <v>45391</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="7">
@@ -1085,7 +1105,7 @@
       <c r="B60" s="8">
         <v>45392</v>
       </c>
-      <c r="C60" s="10"/>
+      <c r="C60" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="7">
@@ -1094,7 +1114,7 @@
       <c r="B61" s="8">
         <v>45393</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="7">
@@ -1103,7 +1123,7 @@
       <c r="B62" s="8">
         <v>45394</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="7">
@@ -1112,7 +1132,7 @@
       <c r="B63" s="8">
         <v>45395</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="7">
@@ -1121,7 +1141,7 @@
       <c r="B64" s="8">
         <v>45396</v>
       </c>
-      <c r="C64" s="10"/>
+      <c r="C64" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="7">
@@ -1130,7 +1150,7 @@
       <c r="B65" s="8">
         <v>45397</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="7">
@@ -1139,7 +1159,7 @@
       <c r="B66" s="8">
         <v>45398</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="7">
@@ -1148,7 +1168,7 @@
       <c r="B67" s="8">
         <v>45399</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="7">
@@ -1157,7 +1177,7 @@
       <c r="B68" s="8">
         <v>45400</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="7">
@@ -1166,7 +1186,7 @@
       <c r="B69" s="8">
         <v>45401</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="7">
@@ -1175,7 +1195,7 @@
       <c r="B70" s="8">
         <v>45402</v>
       </c>
-      <c r="C70" s="10"/>
+      <c r="C70" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="7">
@@ -1184,7 +1204,7 @@
       <c r="B71" s="8">
         <v>45403</v>
       </c>
-      <c r="C71" s="10"/>
+      <c r="C71" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="7">
@@ -1193,7 +1213,7 @@
       <c r="B72" s="8">
         <v>45404</v>
       </c>
-      <c r="C72" s="10"/>
+      <c r="C72" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="7">
@@ -1202,7 +1222,7 @@
       <c r="B73" s="8">
         <v>45405</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="7">
@@ -1211,7 +1231,7 @@
       <c r="B74" s="8">
         <v>45406</v>
       </c>
-      <c r="C74" s="10"/>
+      <c r="C74" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="7">
@@ -1220,7 +1240,7 @@
       <c r="B75" s="8">
         <v>45407</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>S.N.</t>
   </si>
@@ -82,10 +82,16 @@
     <t>Leave, External Examiner</t>
   </si>
   <si>
+    <t>Shivaratri : Holiday</t>
+  </si>
+  <si>
     <t>Sarurday : Holiday</t>
   </si>
   <si>
     <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Gyalpo Lhosar : Holiday</t>
   </si>
 </sst>
 </file>
@@ -803,7 +809,7 @@
         <v>45359</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
@@ -814,7 +820,7 @@
         <v>45360</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -825,7 +831,7 @@
         <v>45361</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -835,7 +841,9 @@
       <c r="B30" s="8">
         <v>45362</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>S.N.</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Gyalpo Lhosar : Holiday</t>
+  </si>
+  <si>
+    <t>Inheritance and Interface</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,9 @@
       <c r="B31" s="8">
         <v>45363</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>S.N.</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Inheritance and Interface</t>
+  </si>
+  <si>
+    <t>Interface and Method Overriding</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,9 @@
       <c r="B32" s="8">
         <v>45364</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>S.N.</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Interface and Method Overriding</t>
+  </si>
+  <si>
+    <t>1 - 4 Only</t>
+  </si>
+  <si>
+    <t>Holiday Saturday</t>
+  </si>
+  <si>
+    <t>Overriding and Final Keyword with Variable, mathod and class</t>
   </si>
 </sst>
 </file>
@@ -880,7 +889,9 @@
       <c r="B33" s="8">
         <v>45365</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="7">
@@ -889,7 +900,9 @@
       <c r="B34" s="8">
         <v>45366</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="7">
@@ -898,7 +911,9 @@
       <c r="B35" s="8">
         <v>45367</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="7">
@@ -907,7 +922,9 @@
       <c r="B36" s="8">
         <v>45368</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>S.N.</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Overriding and Final Keyword with Variable, mathod and class</t>
+  </si>
+  <si>
+    <t>Final Keword and Access Specifiers</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,9 @@
       <c r="B37" s="8">
         <v>45369</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>S.N.</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Final Keword and Access Specifiers</t>
+  </si>
+  <si>
+    <t>Static Modifiers</t>
+  </si>
+  <si>
+    <t>Inner classes</t>
   </si>
 </sst>
 </file>
@@ -947,7 +953,9 @@
       <c r="B38" s="8">
         <v>45370</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="7">
@@ -956,7 +964,9 @@
       <c r="B39" s="8">
         <v>45371</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="7">
@@ -965,7 +975,9 @@
       <c r="B40" s="8">
         <v>45372</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="7">
@@ -974,7 +986,9 @@
       <c r="B41" s="8">
         <v>45373</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="7">
@@ -983,7 +997,9 @@
       <c r="B42" s="8">
         <v>45374</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>S.N.</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Inner classes</t>
+  </si>
+  <si>
+    <t>Fagu Purnima Holiday</t>
+  </si>
+  <si>
+    <t>Threads</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1014,9 @@
       <c r="B43" s="8">
         <v>45375</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="7">
@@ -1017,7 +1025,9 @@
       <c r="B44" s="8">
         <v>45376</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>S.N.</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Threads</t>
+  </si>
+  <si>
+    <t>Threads Priority, Assignment assigned</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,9 @@
       <c r="B45" s="8">
         <v>45377</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>S.N.</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>Threads Priority, Assignment assigned</t>
+  </si>
+  <si>
+    <t>Threads group, Multithreading and Thread Call</t>
+  </si>
+  <si>
+    <t>Saturday Holiday</t>
+  </si>
+  <si>
+    <t>Stream Classes, Character Stream, BufferedReader</t>
   </si>
 </sst>
 </file>
@@ -545,7 +554,7 @@
   <cols>
     <col min="1" max="1" style="10" width="4.576428571428571" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="46.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1050,7 +1059,9 @@
       <c r="B46" s="8">
         <v>45378</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="7">
@@ -1059,7 +1070,9 @@
       <c r="B47" s="8">
         <v>45379</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="7">
@@ -1068,7 +1081,9 @@
       <c r="B48" s="8">
         <v>45380</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="7">
@@ -1077,7 +1092,9 @@
       <c r="B49" s="8">
         <v>45381</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="7">
@@ -1086,7 +1103,9 @@
       <c r="B50" s="8">
         <v>45382</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>S.N.</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>Stream Classes, Character Stream, BufferedReader</t>
+  </si>
+  <si>
+    <t>Character Stream Theory, Reader and Writer Classes</t>
+  </si>
+  <si>
+    <t>Character Stream BufferedWriter Class</t>
+  </si>
+  <si>
+    <t>No class due to College Program</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1123,9 @@
       <c r="B51" s="8">
         <v>45383</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="7">
@@ -1123,7 +1134,9 @@
       <c r="B52" s="8">
         <v>45384</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="7">
@@ -1132,7 +1145,9 @@
       <c r="B53" s="8">
         <v>45385</v>
       </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="7">
@@ -1141,7 +1156,9 @@
       <c r="B54" s="8">
         <v>45386</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="7">
@@ -1150,7 +1167,9 @@
       <c r="B55" s="8">
         <v>45387</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="7">
@@ -1159,7 +1178,9 @@
       <c r="B56" s="8">
         <v>45388</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>S.N.</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>No class due to College Program</t>
+  </si>
+  <si>
+    <t>Random Access File</t>
+  </si>
+  <si>
+    <t>Ghode Jatra Holiday</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1195,9 @@
       <c r="B57" s="8">
         <v>45389</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="7">
@@ -1198,7 +1206,9 @@
       <c r="B58" s="8">
         <v>45390</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>S.N.</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Ghode Jatra Holiday</t>
+  </si>
+  <si>
+    <t>Random file Access and Byte Stream Classes</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1220,9 @@
       <c r="B59" s="8">
         <v>45391</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="7">
@@ -1235,7 +1240,9 @@
       <c r="B61" s="8">
         <v>45393</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="7">
@@ -1244,7 +1251,9 @@
       <c r="B62" s="8">
         <v>45394</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="C62" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="7">
@@ -1253,7 +1262,9 @@
       <c r="B63" s="8">
         <v>45395</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="7">
@@ -1354,7 +1365,7 @@
       </c>
       <c r="C74" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="20.25">
       <c r="A75" s="7">
         <v>74</v>
       </c>

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>S.N.</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Random file Access and Byte Stream Classes</t>
+  </si>
+  <si>
+    <t>Byte Stream Class, Reading and Writing Objects, Serializable</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <cols>
     <col min="1" max="1" style="10" width="4.576428571428571" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="46.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="58.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1231,7 +1234,9 @@
       <c r="B60" s="8">
         <v>45392</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="7">

--- a/2024FEB_M1.xlsx
+++ b/2024FEB_M1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>S.N.</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Byte Stream Class, Reading and Writing Objects, Serializable</t>
+  </si>
+  <si>
+    <t>Local Holiday Bhaktapur District</t>
+  </si>
+  <si>
+    <t>Presentation by Tulasha, Sarthak and Sujan</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1284,9 @@
       <c r="B64" s="8">
         <v>45396</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="7">
@@ -1287,7 +1295,9 @@
       <c r="B65" s="8">
         <v>45397</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="7">
